--- a/Datos/BRECHAS_ING/Brechas_Ingresos_Region_2.xlsx
+++ b/Datos/BRECHAS_ING/Brechas_Ingresos_Region_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\sfarias\Documents\Curso Python\.vscode\dashboard-indicadores\Datos\BRECHAS_ING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962FA9A0-A228-4AC0-A7A3-D8FBD537F03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702964CC-3881-46B2-89FE-84D5D83416ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,10 +85,10 @@
     <t>Region de Antofagasta</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
